--- a/Myproject/src/main/java/com/myproject/qa/testdata/BCQAM.xlsx
+++ b/Myproject/src/main/java/com/myproject/qa/testdata/BCQAM.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b99cd1de3355f50d/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{21C87DD3-DF69-4ECD-AD74-9170772325BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A3606138-91AF-421D-9B34-5F7D94B985F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{24F2BA3D-DD9C-427C-9BB4-76508576EDC2}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="23280" windowHeight="13224" xr2:uid="{24F2BA3D-DD9C-427C-9BB4-76508576EDC2}"/>
   </bookViews>
   <sheets>
     <sheet name="inspecteddata" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>alerttext</t>
   </si>
@@ -37,6 +33,12 @@
   </si>
   <si>
     <t>Test123</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>1452711</t>
   </si>
 </sst>
 </file>
@@ -72,8 +74,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16A44264-8677-4670-BD6E-E3A6BE817150}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -399,20 +402,26 @@
     <col min="2" max="2" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
